--- a/wwwroot/Template/Template.xlsx
+++ b/wwwroot/Template/Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tech Qode\Desktop\POS\NoblePOS\Noble.Api\wwwroot\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Noble\NoblePOS\Noble.Api\wwwroot\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE44E67-5D1C-466C-8373-214CEB5B85F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{491C9A60-1830-4EAB-B6DC-7F65EFBF7378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8929C77A-1A40-40EB-87DD-9BC8AFF77914}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t xml:space="preserve">Product Name English	</t>
   </si>
@@ -109,6 +109,12 @@
   </si>
   <si>
     <t>Raw Material</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item Name English	</t>
+  </si>
+  <si>
+    <t>Item Name Arabic</t>
   </si>
 </sst>
 </file>
@@ -460,43 +466,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0358666-830C-4C15-B489-B7A2160B8F6F}">
-  <dimension ref="A1:AB1"/>
+  <dimension ref="A1:AD1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -504,81 +512,87 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>8</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>27</v>
       </c>
     </row>
